--- a/data_compilation.xlsx
+++ b/data_compilation.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Documents\GitHub\CS152-STNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcyprus/Documents/HMC CURRENT CLASSES/Neural Networks/finalproj/CS152-STNs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +115,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -153,6 +159,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -197,19 +204,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.9230090491866063</c:v>
+                    <c:v>3.923009049186606</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.861817604250839</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9974984355438206</c:v>
+                    <c:v>1.997498435543821</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5006665778014736</c:v>
+                    <c:v>2.500666577801473</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.6041612554021298</c:v>
+                    <c:v>1.60416125540213</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -221,19 +228,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.9230090491866063</c:v>
+                    <c:v>3.923009049186606</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.861817604250839</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9974984355438206</c:v>
+                    <c:v>1.997498435543821</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5006665778014736</c:v>
+                    <c:v>2.500666577801473</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.6041612554021298</c:v>
+                    <c:v>1.60416125540213</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -246,19 +253,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -273,13 +280,13 @@
                   <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.900000000000006</c:v>
+                  <c:v>80.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.433333333333337</c:v>
+                  <c:v>79.43333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>83.13333333333334</c:v>
@@ -288,7 +295,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-1A14-496D-BFA1-3713C65F7CD9}"/>
             </c:ext>
@@ -323,19 +330,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.40000000000000568</c:v>
+                    <c:v>0.400000000000006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6093476939431088</c:v>
+                    <c:v>1.609347693943109</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1372481406154655</c:v>
+                    <c:v>1.137248140615466</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4933184523068062</c:v>
+                    <c:v>1.493318452306806</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.2516611478423591</c:v>
+                    <c:v>0.251661147842359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -347,19 +354,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.40000000000000568</c:v>
+                    <c:v>0.400000000000006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6093476939431088</c:v>
+                    <c:v>1.609347693943109</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1372481406154655</c:v>
+                    <c:v>1.137248140615466</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4933184523068062</c:v>
+                    <c:v>1.493318452306806</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.2516611478423591</c:v>
+                    <c:v>0.251661147842359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -372,19 +379,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,25 +403,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.90000000000002</c:v>
+                  <c:v>94.90000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.466666666666683</c:v>
+                  <c:v>95.46666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.366666666666674</c:v>
+                  <c:v>96.36666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-1A14-496D-BFA1-3713C65F7CD9}"/>
             </c:ext>
@@ -449,16 +456,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.2501851775650237</c:v>
+                    <c:v>2.250185177565024</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.2068076490713939</c:v>
+                    <c:v>2.206807649071394</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6119410230400844</c:v>
+                    <c:v>4.611941023040084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9139836293274108</c:v>
+                    <c:v>1.913983629327411</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>3.803068936179486</c:v>
@@ -473,16 +480,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.2501851775650237</c:v>
+                    <c:v>2.250185177565024</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.2068076490713939</c:v>
+                    <c:v>2.206807649071394</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6119410230400844</c:v>
+                    <c:v>4.611941023040084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9139836293274108</c:v>
+                    <c:v>1.913983629327411</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>3.803068936179486</c:v>
@@ -498,19 +505,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,25 +529,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>87.366666666666674</c:v>
+                  <c:v>87.36666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.899999999999991</c:v>
+                  <c:v>86.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.399999999999991</c:v>
+                  <c:v>89.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.666666666666671</c:v>
+                  <c:v>90.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.366666666666674</c:v>
+                  <c:v>89.36666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-1A14-496D-BFA1-3713C65F7CD9}"/>
             </c:ext>
@@ -584,19 +591,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.9230090491866063</c:v>
+                    <c:v>3.923009049186606</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.861817604250839</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9974984355438206</c:v>
+                    <c:v>1.997498435543821</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5006665778014736</c:v>
+                    <c:v>2.500666577801473</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.6041612554021298</c:v>
+                    <c:v>1.60416125540213</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -608,19 +615,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.9230090491866063</c:v>
+                    <c:v>3.923009049186606</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.861817604250839</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9974984355438206</c:v>
+                    <c:v>1.997498435543821</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5006665778014736</c:v>
+                    <c:v>2.500666577801473</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.6041612554021298</c:v>
+                    <c:v>1.60416125540213</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -646,19 +653,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,13 +680,13 @@
                   <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.900000000000006</c:v>
+                  <c:v>80.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.433333333333337</c:v>
+                  <c:v>79.43333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>83.13333333333334</c:v>
@@ -688,7 +695,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1A14-496D-BFA1-3713C65F7CD9}"/>
             </c:ext>
@@ -732,19 +739,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.40000000000000568</c:v>
+                    <c:v>0.400000000000006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6093476939431088</c:v>
+                    <c:v>1.609347693943109</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1372481406154655</c:v>
+                    <c:v>1.137248140615466</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4933184523068062</c:v>
+                    <c:v>1.493318452306806</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.2516611478423591</c:v>
+                    <c:v>0.251661147842359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -756,19 +763,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.40000000000000568</c:v>
+                    <c:v>0.400000000000006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6093476939431088</c:v>
+                    <c:v>1.609347693943109</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1372481406154655</c:v>
+                    <c:v>1.137248140615466</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4933184523068062</c:v>
+                    <c:v>1.493318452306806</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.2516611478423591</c:v>
+                    <c:v>0.251661147842359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -794,19 +801,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,25 +825,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.90000000000002</c:v>
+                  <c:v>94.90000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.466666666666683</c:v>
+                  <c:v>95.46666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.366666666666674</c:v>
+                  <c:v>96.36666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-1A14-496D-BFA1-3713C65F7CD9}"/>
             </c:ext>
@@ -854,7 +861,7 @@
                   <c:v>MSTN</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -881,22 +888,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.2501851775650237</c:v>
+                    <c:v>2.250185177565024</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.2068076490713939</c:v>
+                    <c:v>2.206807649071394</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6119410230400844</c:v>
+                    <c:v>4.611941023040084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9139836293274108</c:v>
+                    <c:v>1.913983629327411</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>3.803068936179486</c:v>
                   </c:pt>
                 </c:numCache>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
               </c:numRef>
             </c:plus>
             <c:minus>
@@ -906,22 +913,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.2501851775650237</c:v>
+                    <c:v>2.250185177565024</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.2068076490713939</c:v>
+                    <c:v>2.206807649071394</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.6119410230400844</c:v>
+                    <c:v>4.611941023040084</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9139836293274108</c:v>
+                    <c:v>1.913983629327411</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>3.803068936179486</c:v>
                   </c:pt>
                 </c:numCache>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
               </c:numRef>
             </c:minus>
             <c:spPr>
@@ -945,22 +952,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -970,26 +977,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>87.366666666666674</c:v>
+                  <c:v>87.36666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.899999999999991</c:v>
+                  <c:v>86.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.399999999999991</c:v>
+                  <c:v>89.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.666666666666671</c:v>
+                  <c:v>90.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.366666666666674</c:v>
+                  <c:v>89.36666666666667</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-1A14-496D-BFA1-3713C65F7CD9}"/>
             </c:ext>
@@ -1004,12 +1011,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="288859728"/>
-        <c:axId val="288849560"/>
-        <c:extLst/>
+        <c:axId val="730427728"/>
+        <c:axId val="730432272"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288859728"/>
+        <c:axId val="730427728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,6 +1053,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1092,7 +1100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288849560"/>
+        <c:crossAx val="730432272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,11 +1108,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288849560"/>
+        <c:axId val="730432272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="105"/>
-          <c:min val="70"/>
+          <c:max val="105.0"/>
+          <c:min val="70.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1153,6 +1161,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1193,13 +1202,26 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288859728"/>
+        <c:crossAx val="730427728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1252,7 +1274,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1296,6 +1318,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1369,19 +1392,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.9230090491866063</c:v>
+                    <c:v>3.923009049186606</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.861817604250839</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9974984355438206</c:v>
+                    <c:v>1.997498435543821</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5006665778014736</c:v>
+                    <c:v>2.500666577801473</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.6041612554021298</c:v>
+                    <c:v>1.60416125540213</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1393,19 +1416,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.9230090491866063</c:v>
+                    <c:v>3.923009049186606</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>2.861817604250839</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9974984355438206</c:v>
+                    <c:v>1.997498435543821</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.5006665778014736</c:v>
+                    <c:v>2.500666577801473</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.6041612554021298</c:v>
+                    <c:v>1.60416125540213</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1431,19 +1454,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,13 +1481,13 @@
                   <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.900000000000006</c:v>
+                  <c:v>80.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.433333333333337</c:v>
+                  <c:v>79.43333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>83.13333333333334</c:v>
@@ -1473,7 +1496,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-413C-4F03-8CFA-8E7FFA5C60BA}"/>
             </c:ext>
@@ -1517,19 +1540,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.40000000000000568</c:v>
+                    <c:v>0.400000000000006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6093476939431088</c:v>
+                    <c:v>1.609347693943109</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1372481406154655</c:v>
+                    <c:v>1.137248140615466</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4933184523068062</c:v>
+                    <c:v>1.493318452306806</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.2516611478423591</c:v>
+                    <c:v>0.251661147842359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1541,19 +1564,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.40000000000000568</c:v>
+                    <c:v>0.400000000000006</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6093476939431088</c:v>
+                    <c:v>1.609347693943109</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1372481406154655</c:v>
+                    <c:v>1.137248140615466</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4933184523068062</c:v>
+                    <c:v>1.493318452306806</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.2516611478423591</c:v>
+                    <c:v>0.251661147842359</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1579,19 +1602,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,25 +1626,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.90000000000002</c:v>
+                  <c:v>94.90000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.466666666666683</c:v>
+                  <c:v>95.46666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.366666666666674</c:v>
+                  <c:v>96.36666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-413C-4F03-8CFA-8E7FFA5C60BA}"/>
             </c:ext>
@@ -1636,9 +1659,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="288859728"/>
-        <c:axId val="288849560"/>
-        <c:extLst>
+        <c:axId val="628504496"/>
+        <c:axId val="628509040"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -1646,7 +1669,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -1680,7 +1703,7 @@
                   <c:noEndCap val="0"/>
                   <c:plus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                         <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Sheet1!$L$7:$P$7</c15:sqref>
@@ -1691,16 +1714,16 @@
                         <c:formatCode>General</c:formatCode>
                         <c:ptCount val="5"/>
                         <c:pt idx="0">
-                          <c:v>2.2501851775650237</c:v>
+                          <c:v>2.250185177565024</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>2.2068076490713939</c:v>
+                          <c:v>2.206807649071394</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>4.6119410230400844</c:v>
+                          <c:v>4.611941023040084</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>1.9139836293274108</c:v>
+                          <c:v>1.913983629327411</c:v>
                         </c:pt>
                         <c:pt idx="4">
                           <c:v>3.803068936179486</c:v>
@@ -1710,7 +1733,7 @@
                   </c:plus>
                   <c:minus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                         <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Sheet1!$L$7:$P$7</c15:sqref>
@@ -1721,16 +1744,16 @@
                         <c:formatCode>General</c:formatCode>
                         <c:ptCount val="5"/>
                         <c:pt idx="0">
-                          <c:v>2.2501851775650237</c:v>
+                          <c:v>2.250185177565024</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>2.2068076490713939</c:v>
+                          <c:v>2.206807649071394</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>4.6119410230400844</c:v>
+                          <c:v>4.611941023040084</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>1.9139836293274108</c:v>
+                          <c:v>1.913983629327411</c:v>
                         </c:pt>
                         <c:pt idx="4">
                           <c:v>3.803068936179486</c:v>
@@ -1754,7 +1777,7 @@
                 </c:errBars>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$2:$F$2</c15:sqref>
@@ -1765,26 +1788,26 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>200</c:v>
+                        <c:v>200.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>300</c:v>
+                        <c:v>300.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>400</c:v>
+                        <c:v>400.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$6:$P$6</c15:sqref>
@@ -1795,25 +1818,25 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>87.366666666666674</c:v>
+                        <c:v>87.36666666666667</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>86.899999999999991</c:v>
+                        <c:v>86.9</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>89.399999999999991</c:v>
+                        <c:v>89.4</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>90.666666666666671</c:v>
+                        <c:v>90.66666666666667</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>89.366666666666674</c:v>
+                        <c:v>89.36666666666667</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-413C-4F03-8CFA-8E7FFA5C60BA}"/>
                   </c:ext>
@@ -1824,7 +1847,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288859728"/>
+        <c:axId val="628504496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,6 +1884,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1927,7 +1951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288849560"/>
+        <c:crossAx val="628509040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,11 +1959,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288849560"/>
+        <c:axId val="628509040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="105"/>
-          <c:min val="70"/>
+          <c:max val="105.0"/>
+          <c:min val="70.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1988,6 +2012,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2048,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288859728"/>
+        <c:crossAx val="628504496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,6 +2087,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2704,7 +2730,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CE081E-CEE7-469B-BEB4-B35380F08638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9CE081E-CEE7-469B-BEB4-B35380F08638}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2766,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA4FA42-5D72-4BEB-948C-235CEC9B37A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AA4FA42-5D72-4BEB-948C-235CEC9B37A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,13 +3088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3091,7 +3117,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3167,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3217,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3241,7 +3267,7 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3291,7 +3317,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3359,7 +3385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>

--- a/data_compilation.xlsx
+++ b/data_compilation.xlsx
@@ -861,7 +861,7 @@
                   <c:v>MSTN</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -903,7 +903,7 @@
                     <c:v>3.803068936179486</c:v>
                   </c:pt>
                 </c:numCache>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
               </c:numRef>
             </c:plus>
             <c:minus>
@@ -928,7 +928,7 @@
                     <c:v>3.803068936179486</c:v>
                   </c:pt>
                 </c:numCache>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
               </c:numRef>
             </c:minus>
             <c:spPr>
@@ -967,7 +967,7 @@
                   <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -992,7 +992,7 @@
                   <c:v>89.36666666666667</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1011,12 +1011,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="730427728"/>
-        <c:axId val="730432272"/>
+        <c:axId val="-1540866592"/>
+        <c:axId val="-1638487488"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="730427728"/>
+        <c:axId val="-1540866592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730432272"/>
+        <c:crossAx val="-1638487488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1108,11 +1108,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="730432272"/>
+        <c:axId val="-1638487488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="105.0"/>
-          <c:min val="70.0"/>
+          <c:max val="100.0"/>
+          <c:min val="75.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1202,7 +1202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730427728"/>
+        <c:crossAx val="-1540866592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1659,8 +1659,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="628504496"/>
-        <c:axId val="628509040"/>
+        <c:axId val="-1540847456"/>
+        <c:axId val="-1540842912"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1847,7 +1847,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="628504496"/>
+        <c:axId val="-1540847456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628509040"/>
+        <c:crossAx val="-1540842912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1959,7 +1959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="628509040"/>
+        <c:axId val="-1540842912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -2073,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628504496"/>
+        <c:crossAx val="-1540847456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2730,7 +2730,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9CE081E-CEE7-469B-BEB4-B35380F08638}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CE081E-CEE7-469B-BEB4-B35380F08638}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2766,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AA4FA42-5D72-4BEB-948C-235CEC9B37A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA4FA42-5D72-4BEB-948C-235CEC9B37A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3088,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
